--- a/src/main/resources/files/数据库设计.xlsx
+++ b/src/main/resources/files/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="14640" tabRatio="925"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="246">
   <si>
     <t>数据库名</t>
   </si>
@@ -64,18 +64,12 @@
     <t>博客分类表</t>
   </si>
   <si>
-    <t>博客一级分类</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
     <t>博客标签表</t>
   </si>
   <si>
-    <t>博客二级分类</t>
-  </si>
-  <si>
     <t>blog_user_collect</t>
   </si>
   <si>
@@ -136,7 +130,7 @@
     <t>日志表</t>
   </si>
   <si>
-    <t>记录问日志</t>
+    <t>记录用户访问日志</t>
   </si>
   <si>
     <t>user</t>
@@ -779,7 +773,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -837,47 +831,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -917,6 +875,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -967,7 +940,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,55 +1012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,31 +1036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,6 +1072,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1144,7 +1096,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1144,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,6 +1175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,21 +1244,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1293,6 +1272,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,148 +1345,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1506,7 +1500,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,64 +1536,64 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1902,7 +1896,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1959,73 +1953,69 @@
       <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="16"/>
       <c r="B4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="16"/>
       <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="16"/>
       <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="16"/>
       <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:15">
       <c r="A8" s="16"/>
       <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="5"/>
       <c r="K8" s="1"/>
@@ -2037,13 +2027,13 @@
     <row r="9" ht="22.5" customHeight="1" spans="1:17">
       <c r="A9" s="16"/>
       <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="5"/>
       <c r="K9" s="1"/>
@@ -2057,13 +2047,13 @@
     <row r="10" ht="22.5" customHeight="1" spans="1:17">
       <c r="A10" s="16"/>
       <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="5"/>
       <c r="K10" s="1"/>
@@ -2077,13 +2067,13 @@
     <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="5"/>
       <c r="K11" s="1"/>
@@ -2097,13 +2087,13 @@
     <row r="12" ht="16.5" spans="1:17">
       <c r="A12" s="16"/>
       <c r="B12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="5"/>
       <c r="K12" s="1"/>
@@ -2117,13 +2107,13 @@
     <row r="13" ht="16.5" spans="1:17">
       <c r="A13" s="16"/>
       <c r="B13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="5"/>
       <c r="K13" s="1"/>
@@ -2137,13 +2127,13 @@
     <row r="14" ht="16.5" spans="1:15">
       <c r="A14" s="16"/>
       <c r="B14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="5"/>
       <c r="K14" s="1"/>
@@ -2155,26 +2145,26 @@
     <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="16"/>
       <c r="B15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="16"/>
       <c r="B16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -2225,28 +2215,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -2254,149 +2244,149 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5">
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5">
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5">
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -2446,28 +2436,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -2475,156 +2465,156 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5">
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5">
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5">
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5">
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -2673,28 +2663,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -2702,284 +2692,284 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5">
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5">
         <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5">
         <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5">
         <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5">
         <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5">
         <v>2048</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5">
         <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -3020,28 +3010,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3049,87 +3039,87 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5">
         <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3191,28 +3181,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3220,207 +3210,207 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5">
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5">
         <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5">
         <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5">
         <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5">
         <v>500</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -3468,28 +3458,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3497,46 +3487,46 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3603,28 +3593,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3632,46 +3622,46 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3723,8 +3713,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="A25:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3738,28 +3728,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3767,348 +3757,348 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>200</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5">
         <v>255</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5">
         <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5">
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5">
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="5">
         <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5">
         <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="5">
         <v>255</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5">
         <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5">
         <v>255</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -4148,28 +4138,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4177,119 +4167,119 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -4343,28 +4333,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4372,117 +4362,117 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -4534,28 +4524,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4563,59 +4553,59 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4671,28 +4661,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4700,59 +4690,59 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4808,28 +4798,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4837,59 +4827,59 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4955,28 +4945,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4984,145 +4974,145 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -5176,14 +5166,14 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -5192,16 +5182,16 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -5213,28 +5203,28 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -5242,29 +5232,29 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5">
         <v>1024</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" s="5"/>
       <c r="H4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -5272,29 +5262,29 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1"/>
       <c r="H5" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -5303,29 +5293,29 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -5334,19 +5324,19 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1"/>
       <c r="K7" s="1"/>
@@ -5356,28 +5346,28 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5">
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -5385,30 +5375,30 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:14">
       <c r="A9" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5">
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="H9" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -5416,28 +5406,28 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5">
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -5446,16 +5436,16 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" s="5"/>
       <c r="H11" s="8"/>
@@ -5468,14 +5458,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" s="5"/>
       <c r="K12" s="1"/>
@@ -5485,14 +5475,14 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="5"/>
       <c r="K13" s="1"/>
@@ -5502,15 +5492,15 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="7:14">
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -5518,16 +5508,16 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="8:14">
       <c r="H15" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -5544,7 +5534,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="5:14">
       <c r="E17" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>

--- a/src/main/resources/files/数据库设计.xlsx
+++ b/src/main/resources/files/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925"/>
+    <workbookView windowWidth="21855" windowHeight="12300" tabRatio="925"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4124,7 +4124,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4510,7 +4510,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4931,7 +4931,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5149,7 +5149,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D13"/>
+      <selection activeCell="G3" sqref="G3:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/files/数据库设计.xlsx
+++ b/src/main/resources/files/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21855" windowHeight="12300" tabRatio="925"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="247">
   <si>
     <t>数据库名</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>博客标题</t>
+  </si>
+  <si>
+    <t>唯一</t>
   </si>
   <si>
     <t>summary</t>
@@ -1895,7 +1898,7 @@
   <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2215,7 +2218,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2256,7 +2259,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
@@ -2270,13 +2273,13 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>59</v>
@@ -2285,13 +2288,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>59</v>
@@ -2300,13 +2303,13 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>56</v>
@@ -2315,28 +2318,28 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>56</v>
@@ -2345,48 +2348,48 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -2436,7 +2439,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2480,7 +2483,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>56</v>
@@ -2489,13 +2492,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>59</v>
@@ -2504,13 +2507,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>59</v>
@@ -2519,13 +2522,13 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>59</v>
@@ -2534,13 +2537,13 @@
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>59</v>
@@ -2549,72 +2552,72 @@
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -2663,7 +2666,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2707,7 +2710,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>59</v>
@@ -2716,13 +2719,13 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>59</v>
@@ -2731,13 +2734,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>59</v>
@@ -2746,13 +2749,13 @@
         <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>59</v>
@@ -2761,15 +2764,15 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>59</v>
@@ -2778,13 +2781,13 @@
         <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>59</v>
@@ -2793,26 +2796,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>59</v>
@@ -2821,13 +2824,13 @@
         <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>59</v>
@@ -2836,13 +2839,13 @@
         <v>2048</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>56</v>
@@ -2851,26 +2854,26 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>59</v>
@@ -2879,13 +2882,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>59</v>
@@ -2894,15 +2897,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>59</v>
@@ -2911,15 +2914,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>59</v>
@@ -2928,48 +2931,48 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -3010,7 +3013,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3054,7 +3057,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>59</v>
@@ -3063,13 +3066,13 @@
         <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>59</v>
@@ -3078,48 +3081,48 @@
         <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -3181,7 +3184,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3225,7 +3228,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>59</v>
@@ -3234,13 +3237,13 @@
         <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>59</v>
@@ -3249,13 +3252,13 @@
         <v>200</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>59</v>
@@ -3264,13 +3267,13 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>59</v>
@@ -3279,30 +3282,30 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>59</v>
@@ -3311,13 +3314,13 @@
         <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>59</v>
@@ -3326,13 +3329,13 @@
         <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>56</v>
@@ -3341,13 +3344,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>59</v>
@@ -3356,13 +3359,13 @@
         <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>59</v>
@@ -3371,46 +3374,46 @@
         <v>500</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -3458,7 +3461,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3502,7 +3505,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>56</v>
@@ -3511,13 +3514,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
@@ -3526,7 +3529,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3593,7 +3596,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3637,7 +3640,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>56</v>
@@ -3646,13 +3649,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
@@ -3661,7 +3664,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -3713,8 +3716,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3783,11 +3786,13 @@
       <c r="D4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>59</v>
@@ -3796,26 +3801,26 @@
         <v>200</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>59</v>
@@ -3824,13 +3829,13 @@
         <v>255</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>56</v>
@@ -3839,13 +3844,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>56</v>
@@ -3854,13 +3859,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>56</v>
@@ -3869,13 +3874,13 @@
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>56</v>
@@ -3884,13 +3889,13 @@
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>56</v>
@@ -3899,13 +3904,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>56</v>
@@ -3914,13 +3919,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>56</v>
@@ -3929,13 +3934,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>56</v>
@@ -3944,13 +3949,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>59</v>
@@ -3959,13 +3964,13 @@
         <v>255</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>56</v>
@@ -3974,15 +3979,15 @@
         <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>59</v>
@@ -3991,13 +3996,13 @@
         <v>255</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>59</v>
@@ -4006,15 +4011,15 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>59</v>
@@ -4023,15 +4028,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>59</v>
@@ -4040,15 +4045,15 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>59</v>
@@ -4057,48 +4062,48 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -4138,7 +4143,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4182,7 +4187,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>59</v>
@@ -4191,13 +4196,13 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>59</v>
@@ -4206,15 +4211,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
@@ -4223,15 +4228,15 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>56</v>
@@ -4240,46 +4245,46 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -4333,7 +4338,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4377,7 +4382,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>59</v>
@@ -4386,28 +4391,28 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
@@ -4416,15 +4421,15 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>56</v>
@@ -4433,46 +4438,46 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -4524,7 +4529,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4568,7 +4573,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>56</v>
@@ -4577,13 +4582,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
@@ -4592,20 +4597,20 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4661,7 +4666,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4705,7 +4710,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>56</v>
@@ -4714,13 +4719,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
@@ -4729,20 +4734,20 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4798,7 +4803,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4842,7 +4847,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>56</v>
@@ -4851,13 +4856,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
@@ -4866,20 +4871,20 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4945,7 +4950,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4989,20 +4994,20 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
@@ -5011,13 +5016,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
@@ -5026,13 +5031,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>56</v>
@@ -5041,13 +5046,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>59</v>
@@ -5056,15 +5061,15 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>59</v>
@@ -5073,46 +5078,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -5166,7 +5171,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5216,15 +5221,15 @@
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -5232,7 +5237,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>59</v>
@@ -5241,20 +5246,20 @@
         <v>1024</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E4" s="5"/>
       <c r="H4" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -5262,7 +5267,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
@@ -5271,20 +5276,20 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1"/>
       <c r="H5" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -5293,7 +5298,7 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>59</v>
@@ -5302,20 +5307,20 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -5324,7 +5329,7 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>59</v>
@@ -5333,10 +5338,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F7" s="1"/>
       <c r="K7" s="1"/>
@@ -5346,7 +5351,7 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>56</v>
@@ -5355,19 +5360,19 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -5375,7 +5380,7 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:14">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>56</v>
@@ -5384,21 +5389,21 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="H9" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -5406,7 +5411,7 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>56</v>
@@ -5415,19 +5420,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -5436,7 +5441,7 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>56</v>
@@ -5445,7 +5450,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E11" s="5"/>
       <c r="H11" s="8"/>
@@ -5458,14 +5463,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" s="5"/>
       <c r="K12" s="1"/>
@@ -5475,14 +5480,14 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" s="5"/>
       <c r="K13" s="1"/>
@@ -5492,15 +5497,15 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="7:14">
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -5508,16 +5513,16 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="8:14">
       <c r="H15" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -5534,7 +5539,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="5:14">
       <c r="E17" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>

--- a/src/main/resources/files/数据库设计.xlsx
+++ b/src/main/resources/files/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,13 @@
     <sheet name="友情链接表" sheetId="12" r:id="rId10"/>
     <sheet name="日志表" sheetId="13" r:id="rId11"/>
     <sheet name="用户表" sheetId="9" r:id="rId12"/>
-    <sheet name="角色表" sheetId="17" r:id="rId13"/>
-    <sheet name="菜单表" sheetId="18" r:id="rId14"/>
-    <sheet name="角色菜单关联表" sheetId="19" r:id="rId15"/>
-    <sheet name="用户角色关联表" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="206">
   <si>
     <t>数据库名</t>
   </si>
@@ -140,42 +136,6 @@
   </si>
   <si>
     <t>记录用户的信息</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>角色表</t>
-  </si>
-  <si>
-    <t>记录角色的信息</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>菜单表</t>
-  </si>
-  <si>
-    <t>记录菜单的信息</t>
-  </si>
-  <si>
-    <t>role_menu</t>
-  </si>
-  <si>
-    <t>角色菜单关联表</t>
-  </si>
-  <si>
-    <t>记录角色拥有的菜单权限</t>
-  </si>
-  <si>
-    <t>user_role</t>
-  </si>
-  <si>
-    <t>用户角色关联表</t>
-  </si>
-  <si>
-    <t>记录用户所属的角色</t>
   </si>
   <si>
     <t>博客表blog</t>
@@ -684,93 +644,6 @@
   </si>
   <si>
     <t>0-普通用户  1-管理员</t>
-  </si>
-  <si>
-    <t>角色表role</t>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>角色权限字符串</t>
-  </si>
-  <si>
-    <t>菜单表menu</t>
-  </si>
-  <si>
-    <t>菜单名</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>路由地址</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>组件路径</t>
-  </si>
-  <si>
-    <t>visiable</t>
-  </si>
-  <si>
-    <t>显示状态</t>
-  </si>
-  <si>
-    <t>0-隐藏 1-显示</t>
-  </si>
-  <si>
-    <t>perms</t>
-  </si>
-  <si>
-    <t>权限标识</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>父菜单</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>菜单级别</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>菜单图标</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>角色菜单关联表role_menu</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>角色ID</t>
-  </si>
-  <si>
-    <t>menu_id</t>
-  </si>
-  <si>
-    <t>菜单ID</t>
-  </si>
-  <si>
-    <t>用户角色关联表user_role</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1221,15 +1094,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1369,7 +1233,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1381,34 +1245,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1533,16 +1397,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1896,10 +1760,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2107,73 +1971,9 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" ht="16.5" spans="1:17">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" location="博客表!A1" display="博客表"/>
@@ -2187,10 +1987,6 @@
     <hyperlink ref="C8" location="说说表!A1" display="说说表"/>
     <hyperlink ref="C7" location="用户点赞说说记录表!A1" display="用户点赞说说记录表"/>
     <hyperlink ref="C11" location="日志表!A1" display="日志表"/>
-    <hyperlink ref="C13" location="角色表!A1" display="角色表"/>
-    <hyperlink ref="C14" location="菜单表!A1" display="菜单表"/>
-    <hyperlink ref="C15" location="角色菜单关联表!A1" display="角色菜单关联表"/>
-    <hyperlink ref="C16" location="用户角色关联表!A1" display="用户角色关联表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2218,28 +2014,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -2247,149 +2043,149 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5">
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5">
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -2439,28 +2235,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -2468,156 +2264,156 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5">
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5">
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5">
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5">
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -2652,524 +2448,6 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.675" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.675" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="5">
-        <v>255</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5">
-        <v>255</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="5">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="5">
-        <v>100</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5">
-        <v>60</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="5">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2048</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="5">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1"/>
-    <row r="23" ht="22.5" customHeight="1"/>
-    <row r="24" ht="22.5" customHeight="1"/>
-    <row r="25" ht="22.5" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F1" location="目录!A1" display="目录"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.675" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.675" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="5">
-        <v>64</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5">
-        <v>100</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1"/>
-    <row r="10" ht="22.5" customHeight="1"/>
-    <row r="11" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E12"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E13"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1"/>
-    <row r="15" ht="22.5" customHeight="1"/>
-    <row r="16" ht="22.5" customHeight="1"/>
-    <row r="17" ht="22.5" customHeight="1"/>
-    <row r="18" ht="22.5" customHeight="1"/>
-    <row r="19" ht="22.5" customHeight="1"/>
-    <row r="20" ht="22.5" customHeight="1"/>
-    <row r="21" ht="22.5" customHeight="1"/>
-    <row r="22" ht="39" customHeight="1"/>
-    <row r="23" ht="22.5" customHeight="1"/>
-    <row r="24" ht="22.5" customHeight="1"/>
-    <row r="25" ht="22.5" customHeight="1"/>
-    <row r="26" ht="22.5" customHeight="1"/>
-    <row r="27" ht="22.5" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F1" location="目录!A1" display="目录"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3184,28 +2462,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3213,491 +2491,291 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
+    <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="5">
-        <v>100</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5">
-        <v>100</v>
+        <v>2048</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C15" s="5">
+        <v>50</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1"/>
-    <row r="18" ht="22.5" customHeight="1"/>
-    <row r="19" ht="22.5" customHeight="1"/>
-    <row r="20" ht="22.5" customHeight="1"/>
-    <row r="21" ht="22.5" customHeight="1"/>
-    <row r="22" ht="39" customHeight="1"/>
+        <v>81</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1"/>
     <row r="23" ht="22.5" customHeight="1"/>
     <row r="24" ht="22.5" customHeight="1"/>
     <row r="25" ht="22.5" customHeight="1"/>
-    <row r="26" ht="22.5" customHeight="1"/>
-    <row r="27" ht="22.5" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F1" location="目录!A1" display="目录"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.675" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.675" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="5">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E6"/>
-    </row>
-    <row r="7" customFormat="1" ht="22.5" customHeight="1"/>
-    <row r="8" customFormat="1" ht="22.5" customHeight="1"/>
-    <row r="9" ht="22.5" customHeight="1"/>
-    <row r="10" ht="22.5" customHeight="1"/>
-    <row r="11" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E12"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E13"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1"/>
-    <row r="15" ht="22.5" customHeight="1"/>
-    <row r="16" ht="22.5" customHeight="1"/>
-    <row r="17" ht="22.5" customHeight="1"/>
-    <row r="18" ht="22.5" customHeight="1"/>
-    <row r="19" ht="22.5" customHeight="1"/>
-    <row r="20" ht="22.5" customHeight="1"/>
-    <row r="21" ht="22.5" customHeight="1"/>
-    <row r="22" ht="39" customHeight="1"/>
-    <row r="23" ht="22.5" customHeight="1"/>
-    <row r="24" ht="22.5" customHeight="1"/>
-    <row r="25" ht="22.5" customHeight="1"/>
-    <row r="26" ht="22.5" customHeight="1"/>
-    <row r="27" ht="22.5" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F1" location="目录!A1" display="目录"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.675" customWidth="1"/>
-    <col min="2" max="2" width="11.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.675" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="5">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E6"/>
-    </row>
-    <row r="7" customFormat="1" ht="22.5" customHeight="1"/>
-    <row r="8" customFormat="1" ht="22.5" customHeight="1"/>
-    <row r="9" ht="22.5" customHeight="1"/>
-    <row r="10" ht="22.5" customHeight="1"/>
-    <row r="11" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E12"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E13"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1"/>
-    <row r="15" ht="22.5" customHeight="1"/>
-    <row r="16" ht="22.5" customHeight="1"/>
-    <row r="17" ht="22.5" customHeight="1"/>
-    <row r="18" ht="22.5" customHeight="1"/>
-    <row r="19" ht="22.5" customHeight="1"/>
-    <row r="20" ht="22.5" customHeight="1"/>
-    <row r="21" ht="22.5" customHeight="1"/>
-    <row r="22" ht="39" customHeight="1"/>
-    <row r="23" ht="22.5" customHeight="1"/>
-    <row r="24" ht="22.5" customHeight="1"/>
-    <row r="25" ht="22.5" customHeight="1"/>
-    <row r="26" ht="22.5" customHeight="1"/>
-    <row r="27" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -3716,8 +2794,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3731,28 +2809,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3760,350 +2838,350 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5">
         <v>200</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5">
         <v>255</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5">
         <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5">
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5">
         <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5">
         <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5">
         <v>255</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5">
         <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5">
         <v>255</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -4143,28 +3221,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4172,119 +3250,119 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -4338,28 +3416,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4367,117 +3445,117 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -4529,28 +3607,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4558,59 +3636,59 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4666,28 +3744,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4695,59 +3773,59 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4803,28 +3881,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4832,59 +3910,59 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4950,28 +4028,28 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -4979,145 +4057,145 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -5171,14 +4249,14 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -5187,16 +4265,16 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -5208,28 +4286,28 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:14">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -5237,29 +4315,29 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5">
         <v>1024</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E4" s="5"/>
       <c r="H4" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -5267,29 +4345,29 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F5" s="1"/>
       <c r="H5" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -5298,29 +4376,29 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -5329,19 +4407,19 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1"/>
       <c r="K7" s="1"/>
@@ -5351,28 +4429,28 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5">
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="11" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -5380,30 +4458,30 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:14">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="H9" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -5411,28 +4489,28 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5">
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -5441,16 +4519,16 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E11" s="5"/>
       <c r="H11" s="8"/>
@@ -5463,14 +4541,14 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E12" s="5"/>
       <c r="K12" s="1"/>
@@ -5480,14 +4558,14 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E13" s="5"/>
       <c r="K13" s="1"/>
@@ -5497,15 +4575,15 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="7:14">
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="11" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -5513,16 +4591,16 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="8:14">
       <c r="H15" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -5539,7 +4617,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="5:14">
       <c r="E17" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>

--- a/src/main/resources/files/数据库设计.xlsx
+++ b/src/main/resources/files/数据库设计.xlsx
@@ -20,12 +20,25 @@
     <sheet name="日志表" sheetId="13" r:id="rId11"/>
     <sheet name="用户表" sheetId="9" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="194">
   <si>
     <t>数据库名</t>
   </si>
@@ -384,27 +397,9 @@
     <t>评论表comment</t>
   </si>
   <si>
-    <t>id = 1</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第一次查询type = 0,object_id = 1,comment_id = null，根据时间排序 </t>
-  </si>
-  <si>
     <t>评论内容</t>
   </si>
   <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>第二次查询 comment_id = 1,根据时间排序</t>
-  </si>
-  <si>
     <t>object_id</t>
   </si>
   <si>
@@ -414,9 +409,6 @@
     <t>对应博客或说说或全站留言的ID</t>
   </si>
   <si>
-    <t>user3</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -426,7 +418,7 @@
     <t>0-博客 1-说说 2-全站留言</t>
   </si>
   <si>
-    <t>user4</t>
+    <t>1、根据type、object_id、comment_id(为空)、to_uid（为空）查询所有父评论</t>
   </si>
   <si>
     <t>from_uid</t>
@@ -435,10 +427,7 @@
     <t>评论用户ID</t>
   </si>
   <si>
-    <t>id = 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type = 0,object_id = 1,comment_id = null </t>
+    <t>2、针对每一条父评论，查询它对应下的回复评论，条件：comment_id = 父评论id的评论</t>
   </si>
   <si>
     <t>to_uid</t>
@@ -447,9 +436,6 @@
     <t>回复用户ID</t>
   </si>
   <si>
-    <t>comment_id = 2</t>
-  </si>
-  <si>
     <t>comment_id</t>
   </si>
   <si>
@@ -460,16 +446,6 @@
   </si>
   <si>
     <t>评论点赞数</t>
-  </si>
-  <si>
-    <t>id = 3</t>
-  </si>
-  <si>
-    <t>comment_id = 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select * from comment where type = 0 and object_id = 1 and comment_id = null (3条)
-</t>
   </si>
   <si>
     <t>友情链接表friendly_link</t>
@@ -649,7 +625,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -843,7 +819,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,18 +847,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1197,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1257,16 +1221,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1275,89 +1239,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,21 +1343,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1404,9 +1362,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,7 +1718,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1781,30 +1736,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1813,33 +1768,33 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1848,11 +1803,11 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1861,11 +1816,11 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1874,11 +1829,11 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1892,11 +1847,11 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:17">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1912,11 +1867,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:17">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1932,11 +1887,11 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" ht="16.5" spans="1:17">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1952,11 +1907,11 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" ht="16.5" spans="1:17">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2014,7 +1969,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2055,7 +2010,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
@@ -2069,7 +2024,7 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -2084,13 +2039,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2099,7 +2054,7 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -2114,7 +2069,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2235,7 +2190,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2294,7 +2249,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
@@ -2303,13 +2258,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2318,13 +2273,13 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -2333,13 +2288,13 @@
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
@@ -2348,72 +2303,72 @@
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -2462,7 +2417,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2506,7 +2461,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>47</v>
@@ -2515,13 +2470,13 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
@@ -2530,13 +2485,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2545,13 +2500,13 @@
         <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -2560,15 +2515,15 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
@@ -2577,13 +2532,13 @@
         <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>47</v>
@@ -2592,26 +2547,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>47</v>
@@ -2620,13 +2575,13 @@
         <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>47</v>
@@ -2635,13 +2590,13 @@
         <v>2048</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>44</v>
@@ -2650,26 +2605,26 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>47</v>
@@ -2678,7 +2633,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -2701,7 +2656,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>47</v>
@@ -2710,15 +2665,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>47</v>
@@ -2727,10 +2682,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
@@ -4229,10 +4184,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:N17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4242,12 +4197,11 @@
     <col min="3" max="3" width="9.675" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="50.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9" style="1"/>
-    <col min="14" max="14" width="38" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:14">
+    <row r="1" ht="28.5" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>118</v>
       </c>
@@ -4258,12 +4212,12 @@
       <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -4279,12 +4233,13 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:14">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -4298,22 +4253,13 @@
         <v>45</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:14">
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -4324,28 +4270,18 @@
         <v>1024</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="H4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A5" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A5" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>44</v>
@@ -4354,29 +4290,21 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="H5" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A6" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A6" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -4385,27 +4313,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="H6" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:14">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -4422,14 +4342,17 @@
         <v>82</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:14">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>44</v>
@@ -4438,27 +4361,20 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="G8" s="7" t="s">
-        <v>136</v>
-      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:14">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>44</v>
@@ -4467,29 +4383,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:14">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>44</v>
@@ -4498,26 +4404,18 @@
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:14">
+        <v>134</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:11">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -4528,18 +4426,16 @@
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E11" s="5"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:14">
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
@@ -4551,12 +4447,13 @@
         <v>92</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:14">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>95</v>
       </c>
@@ -4568,64 +4465,35 @@
         <v>96</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="7:14">
-      <c r="G14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="7:11">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="8:14">
-      <c r="H15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="8:14">
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="7:11">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="7:11">
+      <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="5:14">
-      <c r="E17" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="5:5">
+      <c r="E17" s="9"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="5:5">
       <c r="E18" s="9"/>
@@ -4633,39 +4501,34 @@
     <row r="19" ht="22.5" customHeight="1" spans="5:5">
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E20" s="10"/>
-    </row>
+    <row r="20" ht="22.5" customHeight="1"/>
     <row r="21" ht="22.5" customHeight="1"/>
     <row r="22" ht="22.5" customHeight="1"/>
-    <row r="23" ht="22.5" customHeight="1"/>
-    <row r="24" ht="39" customHeight="1"/>
+    <row r="23" ht="39" customHeight="1"/>
+    <row r="24" ht="22.5" customHeight="1"/>
     <row r="25" ht="22.5" customHeight="1"/>
     <row r="26" ht="22.5" customHeight="1"/>
     <row r="27" ht="22.5" customHeight="1"/>
     <row r="28" ht="22.5" customHeight="1"/>
-    <row r="29" ht="22.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" location="目录!A1" display="目录"/>

--- a/src/main/resources/files/数据库设计.xlsx
+++ b/src/main/resources/files/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -1321,7 +1321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1342,9 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1717,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1736,30 +1733,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1768,33 +1765,33 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1803,11 +1800,11 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1816,11 +1813,11 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1829,11 +1826,11 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1847,11 +1844,11 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:17">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1867,11 +1864,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:17">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1887,11 +1884,11 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" ht="16.5" spans="1:17">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1907,11 +1904,11 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" ht="16.5" spans="1:17">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4186,8 +4183,8 @@
   <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4253,11 +4250,11 @@
         <v>45</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
@@ -4273,11 +4270,11 @@
         <v>119</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:11">
       <c r="A5" s="5" t="s">
@@ -4296,11 +4293,11 @@
         <v>122</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:11">
       <c r="A6" s="5" t="s">
@@ -4319,11 +4316,11 @@
         <v>125</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
       <c r="A7" s="5" t="s">
@@ -4364,13 +4361,13 @@
         <v>128</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
       <c r="A9" s="5" t="s">
@@ -4387,11 +4384,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
       <c r="A10" s="5" t="s">
@@ -4409,11 +4406,11 @@
       <c r="E10" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
       <c r="A11" s="5" t="s">
@@ -4429,11 +4426,11 @@
         <v>135</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:11">
       <c r="A12" s="5" t="s">
@@ -4472,34 +4469,34 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="7:11">
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="7:11">
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="7:11">
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E17" s="9"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E19" s="9"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" ht="22.5" customHeight="1"/>
     <row r="21" ht="22.5" customHeight="1"/>

--- a/src/main/resources/files/数据库设计.xlsx
+++ b/src/main/resources/files/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="192">
   <si>
     <t>数据库名</t>
   </si>
@@ -418,16 +418,10 @@
     <t>0-博客 1-说说 2-全站留言</t>
   </si>
   <si>
-    <t>1、根据type、object_id、comment_id(为空)、to_uid（为空）查询所有父评论</t>
-  </si>
-  <si>
     <t>from_uid</t>
   </si>
   <si>
     <t>评论用户ID</t>
-  </si>
-  <si>
-    <t>2、针对每一条父评论，查询它对应下的回复评论，条件：comment_id = 父评论id的评论</t>
   </si>
   <si>
     <t>to_uid</t>
@@ -1714,8 +1708,8 @@
   <sheetPr/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1966,7 +1960,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2007,7 +2001,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
@@ -2021,7 +2015,7 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -2036,13 +2030,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2051,7 +2045,7 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -2066,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2187,7 +2181,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2246,7 +2240,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
@@ -2255,13 +2249,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2270,13 +2264,13 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -2285,13 +2279,13 @@
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
@@ -2300,72 +2294,72 @@
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -2414,7 +2408,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2458,7 +2452,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>47</v>
@@ -2467,13 +2461,13 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
@@ -2482,13 +2476,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2497,13 +2491,13 @@
         <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -2512,15 +2506,15 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
@@ -2529,13 +2523,13 @@
         <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>47</v>
@@ -2544,26 +2538,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>47</v>
@@ -2572,13 +2566,13 @@
         <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>47</v>
@@ -2587,13 +2581,13 @@
         <v>2048</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>44</v>
@@ -2602,26 +2596,26 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>47</v>
@@ -2630,7 +2624,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -2653,7 +2647,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>47</v>
@@ -2662,15 +2656,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>47</v>
@@ -2679,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
@@ -3819,7 +3813,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4181,10 +4175,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:K9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4195,10 +4189,10 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="50.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="52.5" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:11">
+    <row r="1" ht="28.5" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>118</v>
       </c>
@@ -4209,12 +4203,9 @@
       <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:11">
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -4231,12 +4222,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H2"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -4251,12 +4240,10 @@
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H3"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -4271,12 +4258,10 @@
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H4"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>120</v>
       </c>
@@ -4294,12 +4279,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H5"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
@@ -4317,12 +4300,10 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H6"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -4340,16 +4321,12 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A8" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>44</v>
@@ -4358,20 +4335,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>44</v>
@@ -4380,19 +4353,17 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H9"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>44</v>
@@ -4401,18 +4372,16 @@
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H10"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -4423,16 +4392,14 @@
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H11"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
@@ -4445,12 +4412,10 @@
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:11">
+      <c r="H12"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>95</v>
       </c>
@@ -4463,37 +4428,31 @@
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="7:11">
+      <c r="H13"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="7:9">
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="7:11">
+      <c r="H14"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="7:9">
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="7:11">
+      <c r="H15"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="7:9">
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="5:5">
+      <c r="H16"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="5:9">
       <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="5:5">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="5:9">
       <c r="E18" s="8"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="5:5">
       <c r="E19" s="8"/>
@@ -4501,31 +4460,15 @@
     <row r="20" ht="22.5" customHeight="1"/>
     <row r="21" ht="22.5" customHeight="1"/>
     <row r="22" ht="22.5" customHeight="1"/>
-    <row r="23" ht="39" customHeight="1"/>
+    <row r="23" ht="24" customHeight="1"/>
     <row r="24" ht="22.5" customHeight="1"/>
     <row r="25" ht="22.5" customHeight="1"/>
     <row r="26" ht="22.5" customHeight="1"/>
     <row r="27" ht="22.5" customHeight="1"/>
     <row r="28" ht="22.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" location="目录!A1" display="目录"/>

--- a/src/main/resources/files/数据库设计.xlsx
+++ b/src/main/resources/files/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="925"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="925" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="194">
   <si>
     <t>数据库名</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>分类点击数</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>博客数量</t>
   </si>
   <si>
     <t>博客标签表label</t>
@@ -1708,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1960,7 +1966,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2001,7 +2007,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
@@ -2015,7 +2021,7 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -2030,13 +2036,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2045,7 +2051,7 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -2060,7 +2066,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2069,7 +2075,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
@@ -2181,7 +2187,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2240,7 +2246,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
@@ -2249,13 +2255,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2264,13 +2270,13 @@
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -2279,13 +2285,13 @@
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
@@ -2294,72 +2300,72 @@
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -2408,7 +2414,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2452,7 +2458,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>47</v>
@@ -2461,13 +2467,13 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
@@ -2476,13 +2482,13 @@
         <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -2491,13 +2497,13 @@
         <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>47</v>
@@ -2506,15 +2512,15 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
@@ -2523,13 +2529,13 @@
         <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>47</v>
@@ -2538,26 +2544,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>47</v>
@@ -2566,13 +2572,13 @@
         <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>47</v>
@@ -2581,13 +2587,13 @@
         <v>2048</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>44</v>
@@ -2596,26 +2602,26 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>47</v>
@@ -2624,7 +2630,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -2647,7 +2653,7 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>47</v>
@@ -2656,15 +2662,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>47</v>
@@ -2673,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
@@ -3150,10 +3156,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3275,47 +3281,61 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="5:5">
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="5:5">
+      <c r="E12"/>
+    </row>
     <row r="13" ht="22.5" customHeight="1"/>
     <row r="14" ht="22.5" customHeight="1"/>
     <row r="15" ht="22.5" customHeight="1"/>
@@ -3323,12 +3343,13 @@
     <row r="17" ht="22.5" customHeight="1"/>
     <row r="18" ht="22.5" customHeight="1"/>
     <row r="19" ht="22.5" customHeight="1"/>
-    <row r="20" ht="39" customHeight="1"/>
-    <row r="21" ht="22.5" customHeight="1"/>
+    <row r="20" ht="22.5" customHeight="1"/>
+    <row r="21" ht="39" customHeight="1"/>
     <row r="22" ht="22.5" customHeight="1"/>
     <row r="23" ht="22.5" customHeight="1"/>
     <row r="24" ht="22.5" customHeight="1"/>
     <row r="25" ht="22.5" customHeight="1"/>
+    <row r="26" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -3345,10 +3366,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3362,7 +3383,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3415,7 +3436,7 @@
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -3424,7 +3445,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3462,50 +3483,64 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1"/>
+      <c r="E11" s="5"/>
+    </row>
     <row r="12" ht="22.5" customHeight="1"/>
     <row r="13" ht="22.5" customHeight="1"/>
     <row r="14" ht="22.5" customHeight="1"/>
@@ -3514,12 +3549,13 @@
     <row r="17" ht="22.5" customHeight="1"/>
     <row r="18" ht="22.5" customHeight="1"/>
     <row r="19" ht="22.5" customHeight="1"/>
-    <row r="20" ht="39" customHeight="1"/>
-    <row r="21" ht="22.5" customHeight="1"/>
+    <row r="20" ht="22.5" customHeight="1"/>
+    <row r="21" ht="39" customHeight="1"/>
     <row r="22" ht="22.5" customHeight="1"/>
     <row r="23" ht="22.5" customHeight="1"/>
     <row r="24" ht="22.5" customHeight="1"/>
     <row r="25" ht="22.5" customHeight="1"/>
+    <row r="26" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -3553,7 +3589,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3612,7 +3648,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>44</v>
@@ -3621,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -3690,7 +3726,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3749,7 +3785,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>44</v>
@@ -3758,7 +3794,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -3827,7 +3863,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3886,7 +3922,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>44</v>
@@ -3895,7 +3931,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -3974,7 +4010,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4021,11 +4057,11 @@
         <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -4040,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -4055,7 +4091,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -4070,7 +4106,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -4194,7 +4230,7 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4222,7 +4258,6 @@
         <v>3</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
@@ -4240,7 +4275,6 @@
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="7"/>
-      <c r="H3"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:9">
@@ -4254,16 +4288,15 @@
         <v>1024</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="7"/>
-      <c r="H4"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>44</v>
@@ -4272,19 +4305,18 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
-      <c r="H5"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
@@ -4293,14 +4325,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="7"/>
-      <c r="H6"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:9">
@@ -4321,12 +4352,11 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
-      <c r="H7"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>44</v>
@@ -4335,16 +4365,15 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="7"/>
-      <c r="H8"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>44</v>
@@ -4353,17 +4382,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
-      <c r="H9"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>44</v>
@@ -4372,13 +4400,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:9">
@@ -4392,11 +4419,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="7"/>
-      <c r="H11"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:9">
@@ -4412,7 +4438,6 @@
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="7"/>
-      <c r="H12"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:9">
@@ -4428,22 +4453,18 @@
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="7"/>
-      <c r="H13"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="7:9">
       <c r="G14" s="7"/>
-      <c r="H14"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="7:9">
       <c r="G15" s="7"/>
-      <c r="H15"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="7:9">
       <c r="G16" s="7"/>
-      <c r="H16"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="5:9">
